--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\SoCEUtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Virginia\VA_Model\InputData\bldgs\SoCEUtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F426623E-986B-4896-AF4D-49046E042502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="11940" yWindow="1920" windowWidth="9930" windowHeight="13770" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,18 @@
     <sheet name="Pre-Calibration Calculated Vals" sheetId="7" r:id="rId6"/>
     <sheet name="SoCEUtiNTY" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1176,7 +1188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1251,7 +1263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,12 +1279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,7 +1349,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1410,24 +1416,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="7"/>
-    <cellStyle name="Footnotes: top row" xfId="3"/>
-    <cellStyle name="Header: bottom row" xfId="6"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Parent row" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Table title" xfId="8"/>
+    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1518,6 +1520,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1553,6 +1572,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1728,10 +1764,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1923,7 +1959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1996,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14158,46 +14194,46 @@
     </row>
     <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="35" t="s">
+      <c r="B142" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="35"/>
-      <c r="I142" s="35"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="35"/>
-      <c r="L142" s="35"/>
-      <c r="M142" s="35"/>
-      <c r="N142" s="35"/>
-      <c r="O142" s="35"/>
-      <c r="P142" s="35"/>
-      <c r="Q142" s="35"/>
-      <c r="R142" s="35"/>
-      <c r="S142" s="35"/>
-      <c r="T142" s="35"/>
-      <c r="U142" s="35"/>
-      <c r="V142" s="35"/>
-      <c r="W142" s="35"/>
-      <c r="X142" s="35"/>
-      <c r="Y142" s="35"/>
-      <c r="Z142" s="35"/>
-      <c r="AA142" s="35"/>
-      <c r="AB142" s="35"/>
-      <c r="AC142" s="35"/>
-      <c r="AD142" s="35"/>
-      <c r="AE142" s="35"/>
-      <c r="AF142" s="35"/>
-      <c r="AG142" s="35"/>
-      <c r="AH142" s="35"/>
-      <c r="AI142" s="35"/>
-      <c r="AJ142" s="35"/>
-      <c r="AK142" s="35"/>
-      <c r="AL142" s="35"/>
-      <c r="AM142" s="35"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="34"/>
+      <c r="K142" s="34"/>
+      <c r="L142" s="34"/>
+      <c r="M142" s="34"/>
+      <c r="N142" s="34"/>
+      <c r="O142" s="34"/>
+      <c r="P142" s="34"/>
+      <c r="Q142" s="34"/>
+      <c r="R142" s="34"/>
+      <c r="S142" s="34"/>
+      <c r="T142" s="34"/>
+      <c r="U142" s="34"/>
+      <c r="V142" s="34"/>
+      <c r="W142" s="34"/>
+      <c r="X142" s="34"/>
+      <c r="Y142" s="34"/>
+      <c r="Z142" s="34"/>
+      <c r="AA142" s="34"/>
+      <c r="AB142" s="34"/>
+      <c r="AC142" s="34"/>
+      <c r="AD142" s="34"/>
+      <c r="AE142" s="34"/>
+      <c r="AF142" s="34"/>
+      <c r="AG142" s="34"/>
+      <c r="AH142" s="34"/>
+      <c r="AI142" s="34"/>
+      <c r="AJ142" s="34"/>
+      <c r="AK142" s="34"/>
+      <c r="AL142" s="34"/>
+      <c r="AM142" s="34"/>
     </row>
     <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
@@ -14309,7 +14345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23843,46 +23879,46 @@
     </row>
     <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="35"/>
-      <c r="L118" s="35"/>
-      <c r="M118" s="35"/>
-      <c r="N118" s="35"/>
-      <c r="O118" s="35"/>
-      <c r="P118" s="35"/>
-      <c r="Q118" s="35"/>
-      <c r="R118" s="35"/>
-      <c r="S118" s="35"/>
-      <c r="T118" s="35"/>
-      <c r="U118" s="35"/>
-      <c r="V118" s="35"/>
-      <c r="W118" s="35"/>
-      <c r="X118" s="35"/>
-      <c r="Y118" s="35"/>
-      <c r="Z118" s="35"/>
-      <c r="AA118" s="35"/>
-      <c r="AB118" s="35"/>
-      <c r="AC118" s="35"/>
-      <c r="AD118" s="35"/>
-      <c r="AE118" s="35"/>
-      <c r="AF118" s="35"/>
-      <c r="AG118" s="35"/>
-      <c r="AH118" s="35"/>
-      <c r="AI118" s="35"/>
-      <c r="AJ118" s="35"/>
-      <c r="AK118" s="35"/>
-      <c r="AL118" s="35"/>
-      <c r="AM118" s="35"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="34"/>
+      <c r="L118" s="34"/>
+      <c r="M118" s="34"/>
+      <c r="N118" s="34"/>
+      <c r="O118" s="34"/>
+      <c r="P118" s="34"/>
+      <c r="Q118" s="34"/>
+      <c r="R118" s="34"/>
+      <c r="S118" s="34"/>
+      <c r="T118" s="34"/>
+      <c r="U118" s="34"/>
+      <c r="V118" s="34"/>
+      <c r="W118" s="34"/>
+      <c r="X118" s="34"/>
+      <c r="Y118" s="34"/>
+      <c r="Z118" s="34"/>
+      <c r="AA118" s="34"/>
+      <c r="AB118" s="34"/>
+      <c r="AC118" s="34"/>
+      <c r="AD118" s="34"/>
+      <c r="AE118" s="34"/>
+      <c r="AF118" s="34"/>
+      <c r="AG118" s="34"/>
+      <c r="AH118" s="34"/>
+      <c r="AI118" s="34"/>
+      <c r="AJ118" s="34"/>
+      <c r="AK118" s="34"/>
+      <c r="AL118" s="34"/>
+      <c r="AM118" s="34"/>
     </row>
     <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
@@ -23999,7 +24035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26209,7 +26245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26341,13 +26377,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26357,17 +26395,17 @@
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" t="s">
         <v>354</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" t="s">
         <v>355</v>
       </c>
     </row>
@@ -26375,43 +26413,41 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="C2" s="4">
-        <f>B2</f>
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="D2" s="34">
-        <v>4.7800000000000002E-2</v>
+      <c r="B2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>6.4399999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="C3" s="4">
-        <f>B3</f>
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D3" s="34">
-        <v>6.2E-2</v>
+      <c r="B3">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="C3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.2199999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -26419,45 +26455,42 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34">
-        <v>0.114</v>
-      </c>
-      <c r="C5" s="4">
-        <f>B5</f>
-        <v>0.114</v>
-      </c>
-      <c r="D5" s="34">
-        <v>0.112</v>
+      <c r="B5">
+        <v>0.13</v>
+      </c>
+      <c r="C5">
+        <v>0.13</v>
+      </c>
+      <c r="D5">
+        <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="C6" s="4">
-        <f>B6</f>
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="D6" s="34">
-        <v>7.1199999999999999E-2</v>
+      <c r="B6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="C7" s="4">
-        <f>B7</f>
+      <c r="C7">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="D7" s="34">
-        <v>6.9500000000000006E-2</v>
+      <c r="D7">
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Virginia\VA_Model\InputData\bldgs\SoCEUtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Nevada\NV_model\InputData\bldgs\SoCEUtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F426623E-986B-4896-AF4D-49046E042502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD81673-2C12-4BBA-AA42-12BCD2035B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="1920" windowWidth="9930" windowHeight="13770" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="11430" windowHeight="13575" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26384,7 +26384,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26414,13 +26414,13 @@
         <v>3</v>
       </c>
       <c r="B2">
+        <v>5.2080000000000001E-2</v>
+      </c>
+      <c r="C2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C2">
-        <v>4.5999999999999999E-2</v>
-      </c>
       <c r="D2">
-        <v>6.4399999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -26428,10 +26428,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.4799999999999996E-2</v>
+        <v>6.2199999999999998E-2</v>
       </c>
       <c r="C3">
-        <v>6.25E-2</v>
+        <v>6.2199999999999998E-2</v>
       </c>
       <c r="D3">
         <v>6.2199999999999998E-2</v>
@@ -26456,13 +26456,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.13</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="C5">
-        <v>0.13</v>
+        <v>0.11905</v>
       </c>
       <c r="D5">
-        <v>0.11</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Nevada\NV_model\InputData\bldgs\SoCEUtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\bldgs\SoCEUtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD81673-2C12-4BBA-AA42-12BCD2035B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="11430" windowHeight="13575" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,18 +20,7 @@
     <sheet name="Pre-Calibration Calculated Vals" sheetId="7" r:id="rId6"/>
     <sheet name="SoCEUtiNTY" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1188,7 +1176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1263,7 +1251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1279,6 +1267,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,7 +1343,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1416,20 +1410,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="7"/>
+    <cellStyle name="Footnotes: top row" xfId="3"/>
+    <cellStyle name="Header: bottom row" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Parent row" xfId="4"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Table title" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1520,23 +1518,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1572,23 +1553,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1764,22 +1728,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1787,167 +1751,167 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="30" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="30" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="30" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="33" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>379</v>
       </c>
@@ -1959,18 +1923,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1978,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1986,7 +1950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +1958,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +1966,7 @@
         <v>51.81818181818182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2010,7 +1974,7 @@
         <v>9.1324200913242013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +1982,7 @@
         <v>13.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2032,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2042,14 +2006,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="19.86328125" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.59765625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.73046875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -2162,8 +2126,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="23" t="s">
         <v>180</v>
       </c>
@@ -2174,7 +2138,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="23" t="s">
         <v>178</v>
       </c>
@@ -2187,7 +2151,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
@@ -2198,7 +2162,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="23" t="s">
         <v>173</v>
       </c>
@@ -2209,7 +2173,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
         <v>339</v>
       </c>
@@ -2217,12 +2181,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -2338,7 +2302,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
@@ -2454,18 +2418,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>336</v>
       </c>
@@ -2584,7 +2548,7 @@
         <v>8.4399999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>334</v>
       </c>
@@ -2703,7 +2667,7 @@
         <v>1.0499E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>332</v>
       </c>
@@ -2822,7 +2786,7 @@
         <v>-7.2430000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>330</v>
       </c>
@@ -2941,7 +2905,7 @@
         <v>8.3569999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>329</v>
       </c>
@@ -3060,17 +3024,17 @@
         <v>3.7309999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>325</v>
       </c>
@@ -3189,7 +3153,7 @@
         <v>-7.7879999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>324</v>
       </c>
@@ -3308,12 +3272,12 @@
         <v>-8.8489999999999992E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>323</v>
       </c>
@@ -3432,7 +3396,7 @@
         <v>-1.1476E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>321</v>
       </c>
@@ -3551,17 +3515,17 @@
         <v>-1.2533000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
         <v>319</v>
       </c>
@@ -3680,7 +3644,7 @@
         <v>-1.041E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>318</v>
       </c>
@@ -3799,7 +3763,7 @@
         <v>6.9200000000000002E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
         <v>317</v>
       </c>
@@ -3918,7 +3882,7 @@
         <v>1.9040000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>316</v>
       </c>
@@ -4037,7 +4001,7 @@
         <v>3.362E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
         <v>315</v>
       </c>
@@ -4156,7 +4120,7 @@
         <v>1.0992999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>314</v>
       </c>
@@ -4275,7 +4239,7 @@
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>313</v>
       </c>
@@ -4394,7 +4358,7 @@
         <v>-2.4559999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
         <v>311</v>
       </c>
@@ -4513,7 +4477,7 @@
         <v>-1.7500999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>310</v>
       </c>
@@ -4632,7 +4596,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
         <v>308</v>
       </c>
@@ -4751,7 +4715,7 @@
         <v>1.2205000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="11" t="s">
         <v>306</v>
       </c>
@@ -4870,7 +4834,7 @@
         <v>5.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
         <v>304</v>
       </c>
@@ -4989,7 +4953,7 @@
         <v>-3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="11" t="s">
         <v>302</v>
       </c>
@@ -5108,7 +5072,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
         <v>300</v>
       </c>
@@ -5227,7 +5191,7 @@
         <v>6.9309999999999997E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>299</v>
       </c>
@@ -5346,12 +5310,12 @@
         <v>2.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="11" t="s">
         <v>298</v>
       </c>
@@ -5470,7 +5434,7 @@
         <v>2.9799999999999998E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="11" t="s">
         <v>297</v>
       </c>
@@ -5589,7 +5553,7 @@
         <v>-7.4190000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="11" t="s">
         <v>295</v>
       </c>
@@ -5708,7 +5672,7 @@
         <v>2.3839999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="11" t="s">
         <v>294</v>
       </c>
@@ -5827,7 +5791,7 @@
         <v>3.7450000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="11" t="s">
         <v>293</v>
       </c>
@@ -5946,7 +5910,7 @@
         <v>6.659E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="11" t="s">
         <v>291</v>
       </c>
@@ -6065,7 +6029,7 @@
         <v>-5.071E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>289</v>
       </c>
@@ -6184,12 +6148,12 @@
         <v>8.1099999999999998E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="11" t="s">
         <v>288</v>
       </c>
@@ -6308,7 +6272,7 @@
         <v>-1.4128E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="11" t="s">
         <v>287</v>
       </c>
@@ -6427,7 +6391,7 @@
         <v>-3.7629999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="11" t="s">
         <v>286</v>
       </c>
@@ -6546,7 +6510,7 @@
         <v>-6.2040000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>285</v>
       </c>
@@ -6665,12 +6629,12 @@
         <v>-1.5632E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="11" t="s">
         <v>283</v>
       </c>
@@ -6789,7 +6753,7 @@
         <v>-7.0309999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="11" t="s">
         <v>281</v>
       </c>
@@ -6908,7 +6872,7 @@
         <v>-1.7628999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="11" t="s">
         <v>279</v>
       </c>
@@ -7027,7 +6991,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="11" t="s">
         <v>278</v>
       </c>
@@ -7146,7 +7110,7 @@
         <v>1.4448000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>277</v>
       </c>
@@ -7265,7 +7229,7 @@
         <v>-4.9649999999999998E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="11" t="s">
         <v>276</v>
       </c>
@@ -7384,7 +7348,7 @@
         <v>-6.3109999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="11" t="s">
         <v>274</v>
       </c>
@@ -7503,12 +7467,12 @@
         <v>-2.0202999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="11" t="s">
         <v>272</v>
       </c>
@@ -7627,7 +7591,7 @@
         <v>-1.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="11" t="s">
         <v>271</v>
       </c>
@@ -7746,7 +7710,7 @@
         <v>4.9600000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="11" t="s">
         <v>270</v>
       </c>
@@ -7865,7 +7829,7 @@
         <v>1.214E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="11" t="s">
         <v>269</v>
       </c>
@@ -7984,7 +7948,7 @@
         <v>3.362E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="11" t="s">
         <v>268</v>
       </c>
@@ -8103,7 +8067,7 @@
         <v>5.62E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="11" t="s">
         <v>267</v>
       </c>
@@ -8222,7 +8186,7 @@
         <v>8.5059999999999997E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="11" t="s">
         <v>266</v>
       </c>
@@ -8341,7 +8305,7 @@
         <v>-2.4559999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="11" t="s">
         <v>265</v>
       </c>
@@ -8460,7 +8424,7 @@
         <v>-1.7500999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="11" t="s">
         <v>264</v>
       </c>
@@ -8579,7 +8543,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="11" t="s">
         <v>263</v>
       </c>
@@ -8698,7 +8662,7 @@
         <v>1.2205000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="11" t="s">
         <v>262</v>
       </c>
@@ -8817,7 +8781,7 @@
         <v>5.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="11" t="s">
         <v>261</v>
       </c>
@@ -8936,7 +8900,7 @@
         <v>-3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="11" t="s">
         <v>260</v>
       </c>
@@ -9055,7 +9019,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="11" t="s">
         <v>259</v>
       </c>
@@ -9174,7 +9138,7 @@
         <v>5.6210000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>258</v>
       </c>
@@ -9293,7 +9257,7 @@
         <v>5.04E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
         <v>256</v>
       </c>
@@ -9412,12 +9376,12 @@
         <v>-1.823E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="11" t="s">
         <v>255</v>
       </c>
@@ -9536,7 +9500,7 @@
         <v>-2.343E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="11" t="s">
         <v>253</v>
       </c>
@@ -9655,7 +9619,7 @@
         <v>-1.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="11" t="s">
         <v>251</v>
       </c>
@@ -9774,7 +9738,7 @@
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="11" t="s">
         <v>249</v>
       </c>
@@ -9893,7 +9857,7 @@
         <v>7.3899999999999997E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="11" t="s">
         <v>247</v>
       </c>
@@ -10012,7 +9976,7 @@
         <v>6.1139999999999996E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="11" t="s">
         <v>245</v>
       </c>
@@ -10131,7 +10095,7 @@
         <v>6.339E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="11" t="s">
         <v>243</v>
       </c>
@@ -10250,7 +10214,7 @@
         <v>-5.0639999999999999E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="11" t="s">
         <v>241</v>
       </c>
@@ -10369,7 +10333,7 @@
         <v>-2.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="11" t="s">
         <v>239</v>
       </c>
@@ -10488,7 +10452,7 @@
         <v>-1.2541999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="11" t="s">
         <v>237</v>
       </c>
@@ -10607,7 +10571,7 @@
         <v>9.5589999999999998E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="11" t="s">
         <v>235</v>
       </c>
@@ -10726,7 +10690,7 @@
         <v>2.562E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="11" t="s">
         <v>233</v>
       </c>
@@ -10845,7 +10809,7 @@
         <v>-3.4768E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="11" t="s">
         <v>231</v>
       </c>
@@ -10964,7 +10928,7 @@
         <v>-4.6909999999999999E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="11" t="s">
         <v>229</v>
       </c>
@@ -11083,7 +11047,7 @@
         <v>3.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
         <v>227</v>
       </c>
@@ -11202,12 +11166,12 @@
         <v>-5.6499999999999996E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="11" t="s">
         <v>224</v>
       </c>
@@ -11326,7 +11290,7 @@
         <v>2.7342999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="11" t="s">
         <v>222</v>
       </c>
@@ -11445,7 +11409,7 @@
         <v>2.7820999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="11" t="s">
         <v>220</v>
       </c>
@@ -11564,7 +11528,7 @@
         <v>9.7493999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="11" t="s">
         <v>219</v>
       </c>
@@ -11683,7 +11647,7 @@
         <v>9.724E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
         <v>218</v>
       </c>
@@ -11802,12 +11766,12 @@
         <v>8.5554000000000005E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="11" t="s">
         <v>217</v>
       </c>
@@ -11926,7 +11890,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="11" t="s">
         <v>216</v>
       </c>
@@ -12045,7 +12009,7 @@
         <v>-1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="11" t="s">
         <v>215</v>
       </c>
@@ -12164,7 +12128,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="11" t="s">
         <v>214</v>
       </c>
@@ -12283,7 +12247,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="11" t="s">
         <v>213</v>
       </c>
@@ -12402,7 +12366,7 @@
         <v>-2.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="11" t="s">
         <v>212</v>
       </c>
@@ -12521,7 +12485,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="11" t="s">
         <v>211</v>
       </c>
@@ -12640,7 +12604,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="11" t="s">
         <v>210</v>
       </c>
@@ -12759,7 +12723,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="11" t="s">
         <v>209</v>
       </c>
@@ -12878,7 +12842,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="11" t="s">
         <v>208</v>
       </c>
@@ -12997,12 +12961,12 @@
         <v>-1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="11" t="s">
         <v>207</v>
       </c>
@@ -13121,7 +13085,7 @@
         <v>4.5779999999999996E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="11" t="s">
         <v>206</v>
       </c>
@@ -13240,7 +13204,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="11" t="s">
         <v>205</v>
       </c>
@@ -13359,7 +13323,7 @@
         <v>-3.9060000000000002E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="11" t="s">
         <v>204</v>
       </c>
@@ -13478,7 +13442,7 @@
         <v>-8.1899999999999996E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="11" t="s">
         <v>203</v>
       </c>
@@ -13597,7 +13561,7 @@
         <v>1.384E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="11" t="s">
         <v>202</v>
       </c>
@@ -13716,7 +13680,7 @@
         <v>-9.7400000000000004E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="11" t="s">
         <v>201</v>
       </c>
@@ -13835,7 +13799,7 @@
         <v>4.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="11" t="s">
         <v>200</v>
       </c>
@@ -13954,7 +13918,7 @@
         <v>6.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="11" t="s">
         <v>199</v>
       </c>
@@ -14073,7 +14037,7 @@
         <v>8.744E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="11" t="s">
         <v>198</v>
       </c>
@@ -14192,145 +14156,145 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="34" t="s">
+    <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="34"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="34"/>
-      <c r="I142" s="34"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="34"/>
-      <c r="L142" s="34"/>
-      <c r="M142" s="34"/>
-      <c r="N142" s="34"/>
-      <c r="O142" s="34"/>
-      <c r="P142" s="34"/>
-      <c r="Q142" s="34"/>
-      <c r="R142" s="34"/>
-      <c r="S142" s="34"/>
-      <c r="T142" s="34"/>
-      <c r="U142" s="34"/>
-      <c r="V142" s="34"/>
-      <c r="W142" s="34"/>
-      <c r="X142" s="34"/>
-      <c r="Y142" s="34"/>
-      <c r="Z142" s="34"/>
-      <c r="AA142" s="34"/>
-      <c r="AB142" s="34"/>
-      <c r="AC142" s="34"/>
-      <c r="AD142" s="34"/>
-      <c r="AE142" s="34"/>
-      <c r="AF142" s="34"/>
-      <c r="AG142" s="34"/>
-      <c r="AH142" s="34"/>
-      <c r="AI142" s="34"/>
-      <c r="AJ142" s="34"/>
-      <c r="AK142" s="34"/>
-      <c r="AL142" s="34"/>
-      <c r="AM142" s="34"/>
-    </row>
-    <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="36"/>
+      <c r="N142" s="36"/>
+      <c r="O142" s="36"/>
+      <c r="P142" s="36"/>
+      <c r="Q142" s="36"/>
+      <c r="R142" s="36"/>
+      <c r="S142" s="36"/>
+      <c r="T142" s="36"/>
+      <c r="U142" s="36"/>
+      <c r="V142" s="36"/>
+      <c r="W142" s="36"/>
+      <c r="X142" s="36"/>
+      <c r="Y142" s="36"/>
+      <c r="Z142" s="36"/>
+      <c r="AA142" s="36"/>
+      <c r="AB142" s="36"/>
+      <c r="AC142" s="36"/>
+      <c r="AD142" s="36"/>
+      <c r="AE142" s="36"/>
+      <c r="AF142" s="36"/>
+      <c r="AG142" s="36"/>
+      <c r="AH142" s="36"/>
+      <c r="AI142" s="36"/>
+      <c r="AJ142" s="36"/>
+      <c r="AK142" s="36"/>
+      <c r="AL142" s="36"/>
+      <c r="AM142" s="36"/>
+    </row>
+    <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="7" t="s">
         <v>18</v>
       </c>
@@ -14345,7 +14309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14355,14 +14319,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="19.86328125" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.59765625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.73046875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -14475,8 +14439,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="23" t="s">
         <v>180</v>
       </c>
@@ -14487,7 +14451,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="23" t="s">
         <v>178</v>
       </c>
@@ -14500,7 +14464,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
@@ -14511,7 +14475,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="23" t="s">
         <v>173</v>
       </c>
@@ -14522,7 +14486,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
         <v>171</v>
       </c>
@@ -14530,12 +14494,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -14651,7 +14615,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
@@ -14767,18 +14731,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>163</v>
       </c>
@@ -14897,7 +14861,7 @@
         <v>1.0206E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>161</v>
       </c>
@@ -15016,7 +14980,7 @@
         <v>7.5760000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
@@ -15135,17 +15099,17 @@
         <v>1.0149999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>156</v>
       </c>
@@ -15264,7 +15228,7 @@
         <v>-5.5329999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>154</v>
       </c>
@@ -15383,7 +15347,7 @@
         <v>-8.9350000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>152</v>
       </c>
@@ -15502,17 +15466,17 @@
         <v>-7.2139999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>148</v>
       </c>
@@ -15631,7 +15595,7 @@
         <v>-3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>147</v>
       </c>
@@ -15750,7 +15714,7 @@
         <v>-2.9450000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
         <v>146</v>
       </c>
@@ -15869,7 +15833,7 @@
         <v>-8.2909999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
         <v>145</v>
       </c>
@@ -15988,7 +15952,7 @@
         <v>-1.1093E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>144</v>
       </c>
@@ -16107,7 +16071,7 @@
         <v>-6.5640000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
         <v>143</v>
       </c>
@@ -16226,7 +16190,7 @@
         <v>-1.9772000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>142</v>
       </c>
@@ -16345,7 +16309,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
         <v>141</v>
       </c>
@@ -16464,7 +16428,7 @@
         <v>-1.0253E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>140</v>
       </c>
@@ -16583,7 +16547,7 @@
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
@@ -16702,7 +16666,7 @@
         <v>1.7672E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>137</v>
       </c>
@@ -16821,12 +16785,12 @@
         <v>5.1929999999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="11" t="s">
         <v>135</v>
       </c>
@@ -16945,7 +16909,7 @@
         <v>-6.9439999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
         <v>134</v>
       </c>
@@ -17064,7 +17028,7 @@
         <v>-1.3974E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="11" t="s">
         <v>133</v>
       </c>
@@ -17183,7 +17147,7 @@
         <v>1.438E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
         <v>132</v>
       </c>
@@ -17302,7 +17266,7 @@
         <v>9.7310000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="11" t="s">
         <v>131</v>
       </c>
@@ -17421,7 +17385,7 @@
         <v>1.7788999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>129</v>
       </c>
@@ -17540,12 +17504,12 @@
         <v>4.705E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="11" t="s">
         <v>127</v>
       </c>
@@ -17664,7 +17628,7 @@
         <v>-1.0187E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
@@ -17783,7 +17747,7 @@
         <v>2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="11" t="s">
         <v>125</v>
       </c>
@@ -17902,7 +17866,7 @@
         <v>2.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>123</v>
       </c>
@@ -18021,7 +17985,7 @@
         <v>-4.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="11" t="s">
         <v>122</v>
       </c>
@@ -18140,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="11" t="s">
         <v>120</v>
       </c>
@@ -18259,12 +18223,12 @@
         <v>5.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="11" t="s">
         <v>117</v>
       </c>
@@ -18383,7 +18347,7 @@
         <v>-6.8739999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="11" t="s">
         <v>116</v>
       </c>
@@ -18502,7 +18466,7 @@
         <v>-3.385E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="11" t="s">
         <v>115</v>
       </c>
@@ -18621,7 +18585,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="11" t="s">
         <v>114</v>
       </c>
@@ -18740,7 +18704,7 @@
         <v>-1.1093E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="11" t="s">
         <v>113</v>
       </c>
@@ -18859,7 +18823,7 @@
         <v>7.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="11" t="s">
         <v>112</v>
       </c>
@@ -18978,7 +18942,7 @@
         <v>-1.9772000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="11" t="s">
         <v>111</v>
       </c>
@@ -19097,7 +19061,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="11" t="s">
         <v>110</v>
       </c>
@@ -19216,7 +19180,7 @@
         <v>-1.0253E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="11" t="s">
         <v>109</v>
       </c>
@@ -19335,7 +19299,7 @@
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="11" t="s">
         <v>108</v>
       </c>
@@ -19454,7 +19418,7 @@
         <v>1.5339E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>107</v>
       </c>
@@ -19573,7 +19537,7 @@
         <v>4.561E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
@@ -19692,12 +19656,12 @@
         <v>1.1249999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
@@ -19816,7 +19780,7 @@
         <v>-6.5789999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="11" t="s">
         <v>100</v>
       </c>
@@ -19935,7 +19899,7 @@
         <v>-5.6740000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="11" t="s">
         <v>98</v>
       </c>
@@ -20054,7 +20018,7 @@
         <v>-3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="11" t="s">
         <v>96</v>
       </c>
@@ -20173,7 +20137,7 @@
         <v>-1.3679E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="11" t="s">
         <v>94</v>
       </c>
@@ -20292,7 +20256,7 @@
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="11" t="s">
         <v>92</v>
       </c>
@@ -20411,7 +20375,7 @@
         <v>-2.2335000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="11" t="s">
         <v>90</v>
       </c>
@@ -20530,7 +20494,7 @@
         <v>-3.0479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="11" t="s">
         <v>88</v>
       </c>
@@ -20649,7 +20613,7 @@
         <v>-1.2841E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="11" t="s">
         <v>86</v>
       </c>
@@ -20768,7 +20732,7 @@
         <v>1.4319E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="11" t="s">
         <v>84</v>
       </c>
@@ -20887,7 +20851,7 @@
         <v>1.4466E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
         <v>82</v>
       </c>
@@ -21006,12 +20970,12 @@
         <v>2.8630000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="11" t="s">
         <v>79</v>
       </c>
@@ -21130,7 +21094,7 @@
         <v>4.3639999999999998E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="11" t="s">
         <v>77</v>
       </c>
@@ -21249,7 +21213,7 @@
         <v>6.2715999999999994E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="11" t="s">
         <v>75</v>
       </c>
@@ -21368,7 +21332,7 @@
         <v>4.8741E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
         <v>73</v>
       </c>
@@ -21487,12 +21451,12 @@
         <v>4.7280999999999997E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="11" t="s">
         <v>70</v>
       </c>
@@ -21611,7 +21575,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="11" t="s">
         <v>69</v>
       </c>
@@ -21730,7 +21694,7 @@
         <v>-1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="11" t="s">
         <v>68</v>
       </c>
@@ -21849,7 +21813,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="11" t="s">
         <v>67</v>
       </c>
@@ -21968,7 +21932,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="11" t="s">
         <v>66</v>
       </c>
@@ -22087,7 +22051,7 @@
         <v>-2.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="11" t="s">
         <v>65</v>
       </c>
@@ -22206,7 +22170,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="11" t="s">
         <v>64</v>
       </c>
@@ -22325,7 +22289,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="11" t="s">
         <v>63</v>
       </c>
@@ -22444,7 +22408,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="11" t="s">
         <v>62</v>
       </c>
@@ -22563,7 +22527,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>61</v>
       </c>
@@ -22682,12 +22646,12 @@
         <v>-1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="11" t="s">
         <v>59</v>
       </c>
@@ -22806,7 +22770,7 @@
         <v>4.5779999999999996E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="11" t="s">
         <v>57</v>
       </c>
@@ -22925,7 +22889,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="11" t="s">
         <v>55</v>
       </c>
@@ -23044,7 +23008,7 @@
         <v>-3.9060000000000002E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="11" t="s">
         <v>53</v>
       </c>
@@ -23163,7 +23127,7 @@
         <v>-8.1899999999999996E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="11" t="s">
         <v>51</v>
       </c>
@@ -23282,7 +23246,7 @@
         <v>1.384E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="11" t="s">
         <v>49</v>
       </c>
@@ -23401,7 +23365,7 @@
         <v>-9.7400000000000004E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="11" t="s">
         <v>47</v>
       </c>
@@ -23520,7 +23484,7 @@
         <v>4.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="11" t="s">
         <v>45</v>
       </c>
@@ -23639,7 +23603,7 @@
         <v>6.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="11" t="s">
         <v>43</v>
       </c>
@@ -23758,7 +23722,7 @@
         <v>8.744E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
         <v>41</v>
       </c>
@@ -23877,150 +23841,150 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="34" t="s">
+    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="34"/>
-      <c r="L118" s="34"/>
-      <c r="M118" s="34"/>
-      <c r="N118" s="34"/>
-      <c r="O118" s="34"/>
-      <c r="P118" s="34"/>
-      <c r="Q118" s="34"/>
-      <c r="R118" s="34"/>
-      <c r="S118" s="34"/>
-      <c r="T118" s="34"/>
-      <c r="U118" s="34"/>
-      <c r="V118" s="34"/>
-      <c r="W118" s="34"/>
-      <c r="X118" s="34"/>
-      <c r="Y118" s="34"/>
-      <c r="Z118" s="34"/>
-      <c r="AA118" s="34"/>
-      <c r="AB118" s="34"/>
-      <c r="AC118" s="34"/>
-      <c r="AD118" s="34"/>
-      <c r="AE118" s="34"/>
-      <c r="AF118" s="34"/>
-      <c r="AG118" s="34"/>
-      <c r="AH118" s="34"/>
-      <c r="AI118" s="34"/>
-      <c r="AJ118" s="34"/>
-      <c r="AK118" s="34"/>
-      <c r="AL118" s="34"/>
-      <c r="AM118" s="34"/>
-    </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="36"/>
+      <c r="R118" s="36"/>
+      <c r="S118" s="36"/>
+      <c r="T118" s="36"/>
+      <c r="U118" s="36"/>
+      <c r="V118" s="36"/>
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="36"/>
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="36"/>
+      <c r="AE118" s="36"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="36"/>
+      <c r="AH118" s="36"/>
+      <c r="AI118" s="36"/>
+      <c r="AJ118" s="36"/>
+      <c r="AK118" s="36"/>
+      <c r="AL118" s="36"/>
+      <c r="AM118" s="36"/>
+    </row>
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="7" t="s">
         <v>18</v>
       </c>
@@ -24035,26 +23999,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -24164,7 +24128,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>345</v>
       </c>
@@ -24313,7 +24277,7 @@
         <v>2.0387429639167166E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -24322,19 +24286,19 @@
         <v>2.1866115765726366E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="30" t="s">
         <v>184</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B12" s="27" t="s">
         <v>344</v>
       </c>
@@ -24342,7 +24306,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -24350,7 +24314,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>341</v>
       </c>
@@ -24358,7 +24322,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>342</v>
       </c>
@@ -24366,12 +24330,12 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>2015</v>
       </c>
@@ -24481,7 +24445,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -24626,7 +24590,7 @@
         <v>106.80688818099999</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>341</v>
       </c>
@@ -24771,7 +24735,7 @@
         <v>40.991097584999999</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -24916,12 +24880,12 @@
         <v>4.4407329119999996</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>2015</v>
       </c>
@@ -25031,7 +24995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -25176,7 +25140,7 @@
         <v>1.1215938190000116</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>341</v>
       </c>
@@ -25321,7 +25285,7 @@
         <v>0.52974641499999819</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>342</v>
       </c>
@@ -25466,12 +25430,12 @@
         <v>0.12269708800000068</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>2015</v>
       </c>
@@ -25581,7 +25545,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>340</v>
       </c>
@@ -25726,7 +25690,7 @@
         <v>1.0501137502473678E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>341</v>
       </c>
@@ -25871,7 +25835,7 @@
         <v>1.2923450363862663E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>342</v>
       </c>
@@ -26016,15 +25980,15 @@
         <v>2.7629918401181404E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>340</v>
       </c>
@@ -26033,7 +25997,7 @@
         <v>1.143000484613816E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>341</v>
       </c>
@@ -26042,7 +26006,7 @@
         <v>1.5514513735396921E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>342</v>
       </c>
@@ -26051,12 +26015,12 @@
         <v>2.7312273593190856E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>352</v>
       </c>
@@ -26065,34 +26029,34 @@
         <v>1.3254110935573082E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A44" s="30" t="s">
         <v>356</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>361</v>
       </c>
@@ -26101,7 +26065,7 @@
         <v>0.97813388423427361</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>362</v>
       </c>
@@ -26110,12 +26074,12 @@
         <v>0.98674588906442695</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -26124,7 +26088,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -26133,7 +26097,7 @@
         <v>6.3157894736842107E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -26142,7 +26106,7 @@
         <v>0.1095</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -26151,7 +26115,7 @@
         <v>7.3891625615763554E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -26160,12 +26124,12 @@
         <v>6.4935064935064929E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>361</v>
       </c>
@@ -26173,7 +26137,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -26186,7 +26150,7 @@
         <v>6.5188105096858712E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -26199,7 +26163,7 @@
         <v>7.5574903929115839E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -26212,7 +26176,7 @@
         <v>0.12130278578812782</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -26225,7 +26189,7 @@
         <v>8.6166368748215469E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -26245,20 +26209,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" s="27" t="s">
         <v>353</v>
       </c>
@@ -26269,7 +26233,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -26286,7 +26250,7 @@
         <v>7.3346846514898659E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -26303,7 +26267,7 @@
         <v>8.3642992664733129E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -26317,7 +26281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -26334,7 +26298,7 @@
         <v>0.12897177608937932</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -26351,7 +26315,7 @@
         <v>9.4142018541657921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26368,7 +26332,7 @@
         <v>8.5381303053666202E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="4"/>
     </row>
   </sheetData>
@@ -26377,123 +26341,128 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="27" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>5.2080000000000001E-2</v>
-      </c>
-      <c r="C2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="4">
+        <f>B2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="34">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="C3">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="D3">
-        <v>6.2199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="34">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <f>B3</f>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D3" s="34">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.11905</v>
-      </c>
-      <c r="D5">
-        <v>0.1105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="34">
+        <v>0.114</v>
+      </c>
+      <c r="C5" s="4">
+        <f>B5</f>
+        <v>0.114</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="C6">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="D6">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="34">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <f>B6</f>
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="D6" s="34">
+        <v>7.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="C7">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="D7">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="34">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <f>B7</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D7" s="34">
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="4"/>
     </row>
   </sheetData>
